--- a/data/pca/factorExposure/factorExposure_2012-12-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001131860640561103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001889699585332433</v>
+      </c>
+      <c r="C2">
+        <v>-0.03115212185122645</v>
+      </c>
+      <c r="D2">
+        <v>0.005159974471049731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005979128670735476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.0063590261950714</v>
+      </c>
+      <c r="C4">
+        <v>-0.08392160849316234</v>
+      </c>
+      <c r="D4">
+        <v>0.07788815663634746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002470755686865813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01426151224787481</v>
+      </c>
+      <c r="C6">
+        <v>-0.1140327762493458</v>
+      </c>
+      <c r="D6">
+        <v>0.03282139124237417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001500472917020681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005172739332271442</v>
+      </c>
+      <c r="C7">
+        <v>-0.05862932824674735</v>
+      </c>
+      <c r="D7">
+        <v>0.03063603605071197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006289250093161174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005709157133891979</v>
+      </c>
+      <c r="C8">
+        <v>-0.03751285694006151</v>
+      </c>
+      <c r="D8">
+        <v>0.04131716382957668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003304587782451344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004560516519225007</v>
+      </c>
+      <c r="C9">
+        <v>-0.07046838955337376</v>
+      </c>
+      <c r="D9">
+        <v>0.07257287399228285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002879836281998841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005270109801755925</v>
+      </c>
+      <c r="C10">
+        <v>-0.05855420787423123</v>
+      </c>
+      <c r="D10">
+        <v>-0.1973659145471896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002130161726281527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005847428841104829</v>
+      </c>
+      <c r="C11">
+        <v>-0.07969461995683773</v>
+      </c>
+      <c r="D11">
+        <v>0.05895694670755943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000643634532995661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004189644517820629</v>
+      </c>
+      <c r="C12">
+        <v>-0.06411305188486255</v>
+      </c>
+      <c r="D12">
+        <v>0.04570176529492719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002057185025947308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009066637882985666</v>
+      </c>
+      <c r="C13">
+        <v>-0.06850087834573274</v>
+      </c>
+      <c r="D13">
+        <v>0.0565650646321954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0008452545214721579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001546643451442209</v>
+      </c>
+      <c r="C14">
+        <v>-0.04529058501988163</v>
+      </c>
+      <c r="D14">
+        <v>0.004050838846962926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006667907650888964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006110724057241571</v>
+      </c>
+      <c r="C15">
+        <v>-0.04209314052054633</v>
+      </c>
+      <c r="D15">
+        <v>0.02988999055370326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005337462872072574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005136788458317562</v>
+      </c>
+      <c r="C16">
+        <v>-0.06498594631429576</v>
+      </c>
+      <c r="D16">
+        <v>0.04852951511860293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005494347613692767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009035408049917142</v>
+      </c>
+      <c r="C20">
+        <v>-0.06552655954839089</v>
+      </c>
+      <c r="D20">
+        <v>0.0428764739874357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005712287419670357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01004458363382655</v>
+      </c>
+      <c r="C21">
+        <v>-0.02106965982601142</v>
+      </c>
+      <c r="D21">
+        <v>0.03839313558377326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01600279859642775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006665358211914289</v>
+      </c>
+      <c r="C22">
+        <v>-0.09357307899765978</v>
+      </c>
+      <c r="D22">
+        <v>0.1131429904936226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01630128890537605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.0064811978091015</v>
+      </c>
+      <c r="C23">
+        <v>-0.09438821541333611</v>
+      </c>
+      <c r="D23">
+        <v>0.1131625877198668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001113737871875077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005593695688962544</v>
+      </c>
+      <c r="C24">
+        <v>-0.07630204239905156</v>
+      </c>
+      <c r="D24">
+        <v>0.06285841323924427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00382993764239262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003116589959113325</v>
+      </c>
+      <c r="C25">
+        <v>-0.07851479722211321</v>
+      </c>
+      <c r="D25">
+        <v>0.06483086374288954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004376956940304109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003746637873526163</v>
+      </c>
+      <c r="C26">
+        <v>-0.04142870592718768</v>
+      </c>
+      <c r="D26">
+        <v>0.02277025125607216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004123842596666296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009644643095018522</v>
+      </c>
+      <c r="C28">
+        <v>-0.1071408989727075</v>
+      </c>
+      <c r="D28">
+        <v>-0.3183001065720408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001277505353347093</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003340050040025224</v>
+      </c>
+      <c r="C29">
+        <v>-0.05106620454466251</v>
+      </c>
+      <c r="D29">
+        <v>0.007332901480503668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002625900856621187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009708145901068893</v>
+      </c>
+      <c r="C30">
+        <v>-0.1415701763508275</v>
+      </c>
+      <c r="D30">
+        <v>0.1022582638788493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.001040248037763571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006284921465253798</v>
+      </c>
+      <c r="C31">
+        <v>-0.04438869811708875</v>
+      </c>
+      <c r="D31">
+        <v>0.02875801580011464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0007909350856857169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004114229622770547</v>
+      </c>
+      <c r="C32">
+        <v>-0.03967359708721897</v>
+      </c>
+      <c r="D32">
+        <v>0.02136601743279635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002311327875443047</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008516778802325107</v>
+      </c>
+      <c r="C33">
+        <v>-0.08637056745665291</v>
+      </c>
+      <c r="D33">
+        <v>0.06398796000062999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004108588955290205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004038034019482805</v>
+      </c>
+      <c r="C34">
+        <v>-0.05790956556825693</v>
+      </c>
+      <c r="D34">
+        <v>0.0534768674465369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001138661104612239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00506570313484634</v>
+      </c>
+      <c r="C35">
+        <v>-0.04043025493862278</v>
+      </c>
+      <c r="D35">
+        <v>0.01761404965527736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00353304027924957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.000996594701924265</v>
+      </c>
+      <c r="C36">
+        <v>-0.02479254239540043</v>
+      </c>
+      <c r="D36">
+        <v>0.02147101651328732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002294356355192604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009393790837580634</v>
+      </c>
+      <c r="C38">
+        <v>-0.0338999599223168</v>
+      </c>
+      <c r="D38">
+        <v>0.01679035231387762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01085405714754151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003863575265978774</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156430584066888</v>
+      </c>
+      <c r="D39">
+        <v>0.07528694631313328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009454835458736367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00277251395505215</v>
+      </c>
+      <c r="C40">
+        <v>-0.09010577319054597</v>
+      </c>
+      <c r="D40">
+        <v>0.0130556275180529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001242260166725524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007341684515834078</v>
+      </c>
+      <c r="C41">
+        <v>-0.03819159067005247</v>
+      </c>
+      <c r="D41">
+        <v>0.03715169931221863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.00293483295694553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004139259126622889</v>
+      </c>
+      <c r="C43">
+        <v>-0.05358116661819304</v>
+      </c>
+      <c r="D43">
+        <v>0.02490201956289976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004370538364730761</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003436085679711116</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091631573352767</v>
+      </c>
+      <c r="D44">
+        <v>0.06803928431442008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00113420383699191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002274091893723499</v>
+      </c>
+      <c r="C46">
+        <v>-0.03323185716553016</v>
+      </c>
+      <c r="D46">
+        <v>0.03447044515095508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-8.133558816707514e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002831385784078478</v>
+      </c>
+      <c r="C47">
+        <v>-0.03757990897849346</v>
+      </c>
+      <c r="D47">
+        <v>0.02205012249366422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003936922261701052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006852758652918799</v>
+      </c>
+      <c r="C48">
+        <v>-0.03134342861436783</v>
+      </c>
+      <c r="D48">
+        <v>0.03221042198299692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01116102935029816</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01567881670508408</v>
+      </c>
+      <c r="C49">
+        <v>-0.1848469069323048</v>
+      </c>
+      <c r="D49">
+        <v>0.01576296588268104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.00153848356278216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00366268352421222</v>
+      </c>
+      <c r="C50">
+        <v>-0.04345619154925119</v>
+      </c>
+      <c r="D50">
+        <v>0.03569450728006883</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0007970443113508945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004434989490666246</v>
+      </c>
+      <c r="C51">
+        <v>-0.02611309727412281</v>
+      </c>
+      <c r="D51">
+        <v>0.02078403227429582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001674834618342669</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02112883737227779</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695851029650284</v>
+      </c>
+      <c r="D53">
+        <v>0.02635039498037334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001263760978222343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008896886990360413</v>
+      </c>
+      <c r="C54">
+        <v>-0.05415237325183597</v>
+      </c>
+      <c r="D54">
+        <v>0.0441495934889013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00314400449407211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009725958985257901</v>
+      </c>
+      <c r="C55">
+        <v>-0.1093834615676602</v>
+      </c>
+      <c r="D55">
+        <v>0.03877499312391484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003552902264134078</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02046337796128889</v>
+      </c>
+      <c r="C56">
+        <v>-0.1743771356094301</v>
+      </c>
+      <c r="D56">
+        <v>0.01937323068893973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006679138435210371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01940775157286831</v>
+      </c>
+      <c r="C58">
+        <v>-0.1097775667980949</v>
+      </c>
+      <c r="D58">
+        <v>0.06140881257685404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.005864035415113597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009783274742857962</v>
+      </c>
+      <c r="C59">
+        <v>-0.1655247484126874</v>
+      </c>
+      <c r="D59">
+        <v>-0.3279394733507275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003125066348721969</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02443588483557192</v>
+      </c>
+      <c r="C60">
+        <v>-0.2226207696591441</v>
+      </c>
+      <c r="D60">
+        <v>0.03490099272684333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01337843109722467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001639623341549298</v>
+      </c>
+      <c r="C61">
+        <v>-0.09453694622557249</v>
+      </c>
+      <c r="D61">
+        <v>0.05453966636209966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1624538668736646</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453529490522832</v>
+      </c>
+      <c r="C62">
+        <v>-0.0949838741522592</v>
+      </c>
+      <c r="D62">
+        <v>0.03869941222920675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0003841971134708449</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006397007088434352</v>
+      </c>
+      <c r="C63">
+        <v>-0.05488771574137388</v>
+      </c>
+      <c r="D63">
+        <v>0.02659187726339622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0002794059766331912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01559352957943843</v>
+      </c>
+      <c r="C64">
+        <v>-0.1057230578224752</v>
+      </c>
+      <c r="D64">
+        <v>0.05704187085626442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003593930079363329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01822165781189412</v>
+      </c>
+      <c r="C65">
+        <v>-0.1247573266924948</v>
+      </c>
+      <c r="D65">
+        <v>0.02502887403003189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006634682256400665</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01323894812138665</v>
+      </c>
+      <c r="C66">
+        <v>-0.1594477311075561</v>
+      </c>
+      <c r="D66">
+        <v>0.1107810942813055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003795283001046851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01564416169787845</v>
+      </c>
+      <c r="C67">
+        <v>-0.06512887673458295</v>
+      </c>
+      <c r="D67">
+        <v>0.02710816055841021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005343679219471596</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005903655254241443</v>
+      </c>
+      <c r="C68">
+        <v>-0.08730144487213051</v>
+      </c>
+      <c r="D68">
+        <v>-0.2614593115277046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001581814679312646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006423551531149999</v>
+      </c>
+      <c r="C69">
+        <v>-0.05048335250261951</v>
+      </c>
+      <c r="D69">
+        <v>0.0378347789894637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002788571273298816</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001816812824723216</v>
+      </c>
+      <c r="C70">
+        <v>-0.00270782086138109</v>
+      </c>
+      <c r="D70">
+        <v>0.000272382250795024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003962002264987312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00559616533378026</v>
+      </c>
+      <c r="C71">
+        <v>-0.0946464221120942</v>
+      </c>
+      <c r="D71">
+        <v>-0.3061364539382436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003326024024797299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01645715784455151</v>
+      </c>
+      <c r="C72">
+        <v>-0.153388979260998</v>
+      </c>
+      <c r="D72">
+        <v>0.0168054001900095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0102873064882676</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0312738739167745</v>
+      </c>
+      <c r="C73">
+        <v>-0.279305733337927</v>
+      </c>
+      <c r="D73">
+        <v>0.05719645941986994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004421040628878416</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002149769819265735</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046554736226007</v>
+      </c>
+      <c r="D74">
+        <v>0.03565301531801107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.001974982139323682</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01119961306622577</v>
+      </c>
+      <c r="C75">
+        <v>-0.1246866477092246</v>
+      </c>
+      <c r="D75">
+        <v>0.02588331328966384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009277017550915537</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0219594221083355</v>
+      </c>
+      <c r="C76">
+        <v>-0.148768675570111</v>
+      </c>
+      <c r="D76">
+        <v>0.05806004391653731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002507725725738253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02397283238984254</v>
+      </c>
+      <c r="C77">
+        <v>-0.1214473221876676</v>
+      </c>
+      <c r="D77">
+        <v>0.08194279292533602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001235559400854617</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01497693146678489</v>
+      </c>
+      <c r="C78">
+        <v>-0.09578843836083198</v>
+      </c>
+      <c r="D78">
+        <v>0.07191875937544141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02395262226233138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03813583825203324</v>
+      </c>
+      <c r="C79">
+        <v>-0.1571881809706112</v>
+      </c>
+      <c r="D79">
+        <v>0.03093508031764575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006721060077341064</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0102822068735605</v>
+      </c>
+      <c r="C80">
+        <v>-0.03969820118244651</v>
+      </c>
+      <c r="D80">
+        <v>0.02854118973086185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001135531584571879</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01564715891650662</v>
+      </c>
+      <c r="C81">
+        <v>-0.1274824224930195</v>
+      </c>
+      <c r="D81">
+        <v>0.03941758185549677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005906109434576786</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02003255497741261</v>
+      </c>
+      <c r="C82">
+        <v>-0.1415850503295015</v>
+      </c>
+      <c r="D82">
+        <v>0.03411497065122988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008582975015392227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01021952996674858</v>
+      </c>
+      <c r="C83">
+        <v>-0.05554544462659211</v>
+      </c>
+      <c r="D83">
+        <v>0.05343171643962269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01327305009438383</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01145435038622253</v>
+      </c>
+      <c r="C84">
+        <v>-0.03654777776276929</v>
+      </c>
+      <c r="D84">
+        <v>-0.00585658366033853</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01426901484121969</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02874781711203794</v>
+      </c>
+      <c r="C85">
+        <v>-0.1250799189325221</v>
+      </c>
+      <c r="D85">
+        <v>0.04413267558456452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001133787193427114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005758488664857606</v>
+      </c>
+      <c r="C86">
+        <v>-0.04919593539311595</v>
+      </c>
+      <c r="D86">
+        <v>0.03011307250861086</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003054528260195405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01040636657361538</v>
+      </c>
+      <c r="C87">
+        <v>-0.1277731127234538</v>
+      </c>
+      <c r="D87">
+        <v>0.07292244604181573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01146066493503072</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002881217624619241</v>
+      </c>
+      <c r="C88">
+        <v>-0.06497460187475555</v>
+      </c>
+      <c r="D88">
+        <v>0.01830309109978765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01217577856118367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001228531469845557</v>
+      </c>
+      <c r="C89">
+        <v>-0.1471291848284968</v>
+      </c>
+      <c r="D89">
+        <v>-0.3324244177300257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0002800336378088972</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006886747242955158</v>
+      </c>
+      <c r="C90">
+        <v>-0.1210844853173167</v>
+      </c>
+      <c r="D90">
+        <v>-0.3184512143742707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0009055724869050532</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01053068856783092</v>
+      </c>
+      <c r="C91">
+        <v>-0.100252855378648</v>
+      </c>
+      <c r="D91">
+        <v>0.0208808547698945</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.006626686934008423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009704888726844309</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360817327710276</v>
+      </c>
+      <c r="D92">
+        <v>-0.3254993180555039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0004021439553055016</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004884140117636882</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055189785349712</v>
+      </c>
+      <c r="D93">
+        <v>-0.3015746809360306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004317239959646091</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0228520036743972</v>
+      </c>
+      <c r="C94">
+        <v>-0.1466937642246211</v>
+      </c>
+      <c r="D94">
+        <v>0.05342914733192248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004612848298565521</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01659125825436921</v>
+      </c>
+      <c r="C95">
+        <v>-0.1248831532819012</v>
+      </c>
+      <c r="D95">
+        <v>0.05845511000991183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001712131103029362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03663706365964198</v>
+      </c>
+      <c r="C97">
+        <v>-0.2126308966218098</v>
+      </c>
+      <c r="D97">
+        <v>-0.004673906763424352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.002194556804690716</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03702566666439846</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495958058974504</v>
+      </c>
+      <c r="D98">
+        <v>0.04983237490639676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9850957868862611</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9819310256628945</v>
+      </c>
+      <c r="C99">
+        <v>0.1183751467690625</v>
+      </c>
+      <c r="D99">
+        <v>-0.02713087841510787</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001178930651434128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003378189839808843</v>
+      </c>
+      <c r="C101">
+        <v>-0.05126010439878727</v>
+      </c>
+      <c r="D101">
+        <v>0.007415571727866267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
